--- a/biology/Zoologie/Bécassine_sourde/Bécassine_sourde.xlsx
+++ b/biology/Zoologie/Bécassine_sourde/Bécassine_sourde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_sourde</t>
+          <t>Bécassine_sourde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lymnocryptes minimus
 La Bécassine sourde (Lymnocryptes minimus) ou petite Bécassine, est une espèce d'oiseaux, l'une des trois espèces de bécassines vivant en France. Le nom de sourde (ce qu'elle n'est pas) provient de son comportement face au danger : c'est la seule bécassine qui se plaque au sol en comptant sur son camouflage, ne fuyant en volant qu'en ultime recours, au dernier moment.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_sourde</t>
+          <t>Bécassine_sourde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De taille variable (environ 20 cm), d'une envergure de 38 à 42 cm et d'un poids pouvant aller de 25 à 70 grammes, la bécassine sourde est reconnaissable par sa queue pointue, des ailes aux rémiges secondaires en pointe avec une rayure blanche au bas des couvertures. Sa tête est assez grosse, son bec est placé assez haut et à la base. Il est de taille relativement courte, de quelques centimètres et de couleur rosé ou verdâtre à la base puis noirâtre vers l'extrémité.
 Une bande brune assez large occupe la partie supérieure de sa calotte, ponctuée par de petits points roux. Une petite ligne noire divise sa tête en deux parties depuis la base du bec. Son œil est brun.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_sourde</t>
+          <t>Bécassine_sourde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bécassine sourde fréquente les marais d'eaux douces et les individus s'enfoncent dans une végétation si dense qu'il est assez rare de la voir prendre son envol.
 Ce petit limicole habite les régions froides, nichant en Finlande, Scandinavie, Russie et Sibérie et jusque 70° de latitude nord.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_sourde</t>
+          <t>Bécassine_sourde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Comportements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De manière générale les bécassines ne vivent pas seules, bien que la bécassine sourde soit la plus solitaire. En cas de danger, celle-ci se plaque au sol pour se confondre avec la végétation. La bécassine sourde décolle silencieusement et très près de l'observateur avec des battements d'ailes assez hésitants se reposant après un vol plutôt bref, a contrario de la bécassine des marais qui elle émet des cris lors de son envol et pendant son vol. C'est ce comportement de décollage au tout dernier moment qui lui a valu ce nom de "sourde".
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_sourde</t>
+          <t>Bécassine_sourde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La bécassine sourde sonde le sol à la recherche de vers et de vermisseaux. Elle ingurgite aussi des insectes comme des larves de coléoptères, des mouches, des mollusques aquatiques et des escargots. Son régime peut être complété avec des graines et des plantes aquatiques.
 </t>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_sourde</t>
+          <t>Bécassine_sourde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,7 +663,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nid est semblable à celui des autres espèces de bécassines. Il est situé au sol sur des terrains découverts des forêts du Nord. Quatre œufs gris-jaunâtre avec des taches violettes y sont disposés et couvés uniquement par la femelle pendant une durée de 17 à 24 jours.
 </t>
